--- a/data/Chatbot_evaluation.xlsx
+++ b/data/Chatbot_evaluation.xlsx
@@ -1,37 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshithAV\Project\MRESULT\Phenomix\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE19E774-BEE8-41F5-A629-4704CACCE5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>user_input</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>faithfulness</t>
+  </si>
+  <si>
+    <t>context_recall</t>
+  </si>
+  <si>
+    <t>Give a brief on AIDS?</t>
+  </si>
+  <si>
+    <t>AIDS is an HIV disease that can result in other viral infections or Burkitt's lymphoma. Studies aim to determine the association between HbA1C variability and hypoglycemia requiring hospitalization in adults with type 1 and type 2 diabetes. It is also noted that self-harm is a major risk factor for suicide, with older adults having greater suicidal intent than any other age group.</t>
+  </si>
+  <si>
+    <t>What is Peanut Allergy?</t>
+  </si>
+  <si>
+    <t>Peanut allergy is a common type of food allergy that accounts for a disproportionate number of fatal and near-fatal anaphylactic events amongst all the common food allergens. Food allergy is defined as an immune response that occurs reproducibly to a given food, typically an immunoglobulin E (IgE)-mediated clinical reaction to specific protein epitopes. Over the last 20-30 years, food allergy has grown into a major public health problem.</t>
+  </si>
+  <si>
+    <t>Give the defination of Blood pressure?</t>
+  </si>
+  <si>
+    <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values are between 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements. The Phenotype ID is PH16 and the PID is HP000183.</t>
+  </si>
+  <si>
+    <t>Who is Virat Kohli</t>
+  </si>
+  <si>
+    <t>I am sorry, but the provided content does not contain any information about Virat Kohli.</t>
+  </si>
+  <si>
+    <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values range from 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements.</t>
+  </si>
+  <si>
+    <t>Give me the coding system of Peanut Allergy and who is Virat Kohli?</t>
+  </si>
+  <si>
+    <t>The coding system for Peanut Allergy is:
+CPT Codes, Laboratories, PP000062, PC000062, XPXXX1259.
+I am sorry, but the provided content does not have information on who Virat Kohli is.</t>
+  </si>
+  <si>
+    <t>Hii?</t>
+  </si>
+  <si>
+    <t>Hello! How can I help you?</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>I'm doing well.</t>
+  </si>
+  <si>
+    <t>Who is Rohith Sharma?</t>
+  </si>
+  <si>
+    <t>I am sorry, but I cannot answer who Rohith Sharma is based on the content provided.</t>
+  </si>
+  <si>
+    <t>Who is the god of cricket?</t>
+  </si>
+  <si>
+    <t>I am sorry, but I cannot answer who is the god of cricket based on the content provided.</t>
+  </si>
+  <si>
+    <t>context_precision</t>
+  </si>
+  <si>
+    <t>noise_sensitivity</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +134,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,195 +461,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="57.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>user_input</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>faithfulness</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>context_recall</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>llm_context_precision_with_reference</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>noise_sensitivity(mode=relevant)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Give a brief on AIDS?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AIDS is an HIV disease that can result in other viral infections or Burkitt's lymphoma. Studies aim to determine the association between HbA1C variability and hypoglycemia requiring hospitalization in adults with type 1 and type 2 diabetes. It is also noted that self-harm is a major risk factor for suicide, with older adults having greater suicidal intent than any other age group.</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0.99999999995</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>What is Peanut Allergy?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Peanut allergy is a common type of food allergy that accounts for a disproportionate number of fatal and near-fatal anaphylactic events amongst all the common food allergens. Food allergy is defined as an immune response that occurs reproducibly to a given food, typically an immunoglobulin E (IgE)-mediated clinical reaction to specific protein epitopes. Over the last 20-30 years, food allergy has grown into a major public health problem.</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>0.99999999995</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Give the defination of Blood pressure?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values are between 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements. The Phenotype ID is PH16 and the PID is HP000183.</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0.999999999975</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Who is Virat Kohli</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>I am sorry, but the provided content does not contain any information about Virat Kohli.</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Give the defination of Blood pressure?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values range from 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements.</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0.999999999975</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Give me the coding system of Peanut Allergy and who is Virat Kohli?</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The coding system for Peanut Allergy is:
-CPT Codes, Laboratories, PP000062, PC000062, XPXXX1259.
-I am sorry, but the provided content does not have information on who Virat Kohli is.</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3333333333333333</v>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Chatbot_evaluation.xlsx
+++ b/data/Chatbot_evaluation.xlsx
@@ -1,37 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrinciaFernandes\Mresult\Phenomix\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10786E6-5158-4C0B-8FB2-8167B931626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>user_input</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>faithfulness</t>
+  </si>
+  <si>
+    <t>context_recall</t>
+  </si>
+  <si>
+    <t>llm_context_precision_with_reference</t>
+  </si>
+  <si>
+    <t>noise_sensitivity(mode=relevant)</t>
+  </si>
+  <si>
+    <t>Give a brief on AIDS?</t>
+  </si>
+  <si>
+    <t>AIDS is an HIV disease that can result in other viral infections or Burkitt's lymphoma. Studies aim to determine the association between HbA1C variability and hypoglycemia requiring hospitalization in adults with type 1 and type 2 diabetes. It is also noted that self-harm is a major risk factor for suicide, with older adults having greater suicidal intent than any other age group.</t>
+  </si>
+  <si>
+    <t>What is Peanut Allergy?</t>
+  </si>
+  <si>
+    <t>Peanut allergy is a common type of food allergy that accounts for a disproportionate number of fatal and near-fatal anaphylactic events amongst all the common food allergens. Food allergy is defined as an immune response that occurs reproducibly to a given food, typically an immunoglobulin E (IgE)-mediated clinical reaction to specific protein epitopes. Over the last 20-30 years, food allergy has grown into a major public health problem.</t>
+  </si>
+  <si>
+    <t>Give the defination of Blood pressure?</t>
+  </si>
+  <si>
+    <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values are between 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements. The Phenotype ID is PH16 and the PID is HP000183.</t>
+  </si>
+  <si>
+    <t>Who is Virat Kohli</t>
+  </si>
+  <si>
+    <t>I am sorry, but the provided content does not contain any information about Virat Kohli.</t>
+  </si>
+  <si>
+    <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values range from 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements.</t>
+  </si>
+  <si>
+    <t>Give me the coding system of Peanut Allergy and who is Virat Kohli?</t>
+  </si>
+  <si>
+    <t>The coding system for Peanut Allergy is:
+CPT Codes, Laboratories, PP000062, PC000062, XPXXX1259.
+I am sorry, but the provided content does not have information on who Virat Kohli is.</t>
+  </si>
+  <si>
+    <t>Hello! How can I help you?</t>
+  </si>
+  <si>
+    <t>Hii?</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>I'm doing well.</t>
+  </si>
+  <si>
+    <t>Who is Rohith Sharma?</t>
+  </si>
+  <si>
+    <t>I am sorry, but I cannot answer who Rohith Sharma is based on the content provided.</t>
+  </si>
+  <si>
+    <t>Who is the god of cricket?</t>
+  </si>
+  <si>
+    <t>I am sorry, but I cannot answer who is the god of cricket based on the content provided.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +134,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,195 +458,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>user_input</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>faithfulness</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>context_recall</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>llm_context_precision_with_reference</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>noise_sensitivity(mode=relevant)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Give a brief on AIDS?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AIDS is an HIV disease that can result in other viral infections or Burkitt's lymphoma. Studies aim to determine the association between HbA1C variability and hypoglycemia requiring hospitalization in adults with type 1 and type 2 diabetes. It is also noted that self-harm is a major risk factor for suicide, with older adults having greater suicidal intent than any other age group.</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0.99999999995</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>What is Peanut Allergy?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Peanut allergy is a common type of food allergy that accounts for a disproportionate number of fatal and near-fatal anaphylactic events amongst all the common food allergens. Food allergy is defined as an immune response that occurs reproducibly to a given food, typically an immunoglobulin E (IgE)-mediated clinical reaction to specific protein epitopes. Over the last 20-30 years, food allergy has grown into a major public health problem.</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>0.99999999995</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Give the defination of Blood pressure?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values are between 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements. The Phenotype ID is PH16 and the PID is HP000183.</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0.999999999975</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Who is Virat Kohli</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>I am sorry, but the provided content does not contain any information about Virat Kohli.</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Give the defination of Blood pressure?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Blood pressure is defined as the average of multiple measurements taken during a single consultation. The plausible values range from 20-350 mmHg for systolic measurements and 20-200 mmHg for diastolic measurements.</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0.999999999975</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Give me the coding system of Peanut Allergy and who is Virat Kohli?</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The coding system for Peanut Allergy is:
-CPT Codes, Laboratories, PP000062, PC000062, XPXXX1259.
-I am sorry, but the provided content does not have information on who Virat Kohli is.</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3333333333333333</v>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
